--- a/data/kl/MT/TWR-CR.xlsx
+++ b/data/kl/MT/TWR-CR.xlsx
@@ -2210,12 +2210,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2251,6 +2251,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -2259,59 +2276,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2326,9 +2291,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2340,33 +2328,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2394,11 +2374,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2408,7 +2432,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2423,13 +2447,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2447,61 +2615,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2513,97 +2627,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2669,30 +2699,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2711,8 +2717,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2746,174 +2796,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2937,6 +2967,73 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -3017,7 +3114,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5309870" y="39833550"/>
+          <a:off x="5309870" y="37233225"/>
           <a:ext cx="914400" cy="264160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3066,7 +3163,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5309870" y="39065200"/>
+          <a:off x="5309870" y="36664900"/>
           <a:ext cx="914400" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3490,8 +3587,8 @@
   <sheetPr/>
   <dimension ref="A1:G208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G208"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -3526,7 +3623,7 @@
       <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -3543,486 +3640,486 @@
       </c>
     </row>
     <row r="3" ht="31.5" spans="1:7">
-      <c r="A3" s="9">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="11">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="47.25" spans="1:7">
-      <c r="A4" s="9">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="11">
         <v>4</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" ht="47.25" spans="1:7">
-      <c r="A5" s="9">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="11">
         <v>3</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="9">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="11">
         <v>1</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" ht="47.25" spans="1:7">
-      <c r="A7" s="9">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="11">
         <v>4</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" ht="47.25" spans="1:7">
-      <c r="A8" s="9">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="11">
         <v>3</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" ht="31.5" spans="1:7">
-      <c r="A9" s="9">
+      <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="11">
         <v>4</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" ht="31.5" spans="1:7">
-      <c r="A10" s="9">
+      <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="11">
         <v>1</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" ht="47.25" spans="1:7">
-      <c r="A11" s="9">
+      <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="11">
         <v>1</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" ht="47.25" spans="1:7">
-      <c r="A12" s="9">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="11">
         <v>2</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" ht="31.5" spans="1:7">
-      <c r="A13" s="9">
+      <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="11">
         <v>2</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" ht="31.5" spans="1:7">
-      <c r="A14" s="9">
+      <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="11">
         <v>3</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" ht="31.5" spans="1:7">
-      <c r="A15" s="9">
+      <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="11">
         <v>3</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" ht="31.5" spans="1:7">
-      <c r="A16" s="9">
+      <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="11">
         <v>4</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" ht="31.5" spans="1:7">
-      <c r="A17" s="9">
+      <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="11">
         <v>3</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="18" ht="31.5" spans="1:7">
-      <c r="A18" s="9">
+      <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="11">
         <v>1</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" ht="31.5" spans="1:7">
-      <c r="A19" s="9">
+      <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="11">
         <v>2</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" ht="31.5" spans="1:7">
-      <c r="A20" s="9">
+      <c r="A20" s="11">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="11">
         <v>1</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G20" s="9"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" ht="31.5" spans="1:7">
-      <c r="A21" s="9">
+      <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="11">
         <v>1</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="9"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" ht="31.5" spans="1:7">
-      <c r="A22" s="9">
+      <c r="A22" s="11">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="11">
         <v>2</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G22" s="9"/>
+      <c r="G22" s="12"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="31.5" spans="1:7">
-      <c r="A23" s="9">
+      <c r="A23" s="14">
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="14">
         <v>1</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="9"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:7">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" ht="31.5" spans="1:7">
       <c r="A25" s="9" t="s">
@@ -4047,537 +4144,537 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" ht="63" spans="1:7">
-      <c r="A26" s="9">
+    <row r="26" ht="47.25" spans="1:7">
+      <c r="A26" s="11">
         <v>1</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="11">
         <v>2</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="16">
         <v>0.08</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="16">
         <v>0.07</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="17">
         <v>0.055</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="17">
         <v>0.06</v>
       </c>
     </row>
-    <row r="27" ht="63" spans="1:7">
-      <c r="A27" s="9">
+    <row r="27" ht="47.25" spans="1:7">
+      <c r="A27" s="11">
         <v>2</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="11">
         <v>4</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="16">
         <v>0.08</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="16">
         <v>0.07</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="17">
         <v>0.055</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="17">
         <v>0.06</v>
       </c>
     </row>
     <row r="28" ht="32.25" customHeight="1" spans="1:7">
-      <c r="A28" s="9">
+      <c r="A28" s="11">
         <v>3</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="11">
         <v>4</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="16">
         <v>0.08</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="16">
         <v>0.07</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="17">
         <v>0.055</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="17">
         <v>0.06</v>
       </c>
     </row>
-    <row r="29" ht="63" spans="1:7">
-      <c r="A29" s="9">
+    <row r="29" ht="47.25" spans="1:7">
+      <c r="A29" s="11">
         <v>4</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="11">
         <v>1</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="17">
         <v>0.055</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="17">
         <v>0.06</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="16">
         <v>0.07</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="16">
         <v>0.08</v>
       </c>
     </row>
-    <row r="30" s="3" customFormat="1" ht="63" spans="1:7">
-      <c r="A30" s="9">
+    <row r="30" s="3" customFormat="1" ht="47.25" spans="1:7">
+      <c r="A30" s="11">
         <v>5</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="11">
         <v>4</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="16">
         <v>0.08</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="17">
         <v>0.06</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="16">
         <v>0.07</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="17">
         <v>0.055</v>
       </c>
     </row>
-    <row r="31" ht="63" spans="1:7">
-      <c r="A31" s="9">
+    <row r="31" ht="47.25" spans="1:7">
+      <c r="A31" s="11">
         <v>6</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="11">
         <v>1</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="17">
         <v>0.055</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="17">
         <v>0.06</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="16">
         <v>0.07</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="16">
         <v>0.08</v>
       </c>
     </row>
-    <row r="32" ht="63" spans="1:7">
-      <c r="A32" s="9">
+    <row r="32" ht="47.25" spans="1:7">
+      <c r="A32" s="11">
         <v>7</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="11">
         <v>1</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="17">
         <v>0.055</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="17">
         <v>0.06</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="16">
         <v>0.07</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="16">
         <v>0.08</v>
       </c>
     </row>
-    <row r="33" ht="63" spans="1:7">
-      <c r="A33" s="9">
+    <row r="33" ht="47.25" spans="1:7">
+      <c r="A33" s="11">
         <v>8</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="11">
         <v>3</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="16">
         <v>0.07</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="16">
         <v>0.08</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="17">
         <v>0.055</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="17">
         <v>0.06</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="9">
+      <c r="A34" s="11">
         <v>9</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="11">
         <v>1</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="17" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="35" ht="28.5" customHeight="1" spans="1:7">
-      <c r="A35" s="9">
+      <c r="A35" s="11">
         <v>10</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="11">
         <v>3</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="18" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="9">
+      <c r="A36" s="11">
         <v>11</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="11">
         <v>2</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="18" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="37" ht="24.75" customHeight="1" spans="1:7">
-      <c r="A37" s="9">
+      <c r="A37" s="11">
         <v>12</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="11">
         <v>2</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="18" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="38" ht="23.25" customHeight="1" spans="1:7">
-      <c r="A38" s="9">
+      <c r="A38" s="11">
         <v>13</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="11">
         <v>1</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="18" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="9">
+      <c r="A39" s="11">
         <v>14</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="11">
         <v>3</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="18" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="40" ht="31.5" spans="1:7">
-      <c r="A40" s="9">
+      <c r="A40" s="11">
         <v>15</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="11">
         <v>2</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="18" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="9">
+      <c r="A41" s="11">
         <v>16</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="11">
         <v>1</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" ht="31.5" spans="1:7">
-      <c r="A42" s="9">
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="11">
         <v>17</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="11">
         <v>3</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="12" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="43" ht="63" spans="1:7">
-      <c r="A43" s="9">
+      <c r="A43" s="11">
         <v>18</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="11">
         <v>1</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="G43" s="9"/>
+      <c r="G43" s="12"/>
     </row>
     <row r="44" ht="63" spans="1:7">
-      <c r="A44" s="9">
+      <c r="A44" s="11">
         <v>19</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="11">
         <v>1</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="G44" s="9"/>
+      <c r="G44" s="12"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="9">
+      <c r="A45" s="11">
         <v>20</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="11">
         <v>3</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G45" s="9"/>
+      <c r="G45" s="21"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="31.5" spans="1:7">
-      <c r="A46" s="9">
+      <c r="A46" s="14">
         <v>21</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="14">
         <v>4</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="22" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" ht="31.5" spans="1:7">
-      <c r="A47" s="9">
+      <c r="A47" s="14">
         <v>21</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="14">
         <v>3</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="22" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="48" ht="31.5" spans="1:7">
-      <c r="A48" s="9">
+      <c r="A48" s="14">
         <v>22</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="14">
         <v>1</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="G48" s="9"/>
+      <c r="G48" s="22"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="8"/>
     </row>
     <row r="50" ht="31.5" spans="1:7">
       <c r="A50" s="9" t="s">
@@ -4603,488 +4700,488 @@
       </c>
     </row>
     <row r="51" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A51" s="9">
+      <c r="A51" s="11">
         <v>1</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="11">
         <v>3</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="G51" s="12" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="52" ht="21.75" customHeight="1" spans="1:7">
-      <c r="A52" s="9">
+      <c r="A52" s="11">
         <v>2</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="11">
         <v>1</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="12" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="53" ht="21" customHeight="1" spans="1:7">
-      <c r="A53" s="9">
+      <c r="A53" s="11">
         <v>3</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="11">
         <v>2</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G53" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="54" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A54" s="9">
+      <c r="A54" s="11">
         <v>4</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="11">
         <v>1</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="G54" s="9"/>
+      <c r="G54" s="18"/>
     </row>
     <row r="55" ht="19.5" customHeight="1" spans="1:7">
-      <c r="A55" s="9">
+      <c r="A55" s="11">
         <v>5</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="11">
         <v>2</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" ht="31.5" spans="1:7">
-      <c r="A56" s="9">
+      <c r="G55" s="18"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="11">
         <v>6</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="11">
         <v>3</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="G56" s="9"/>
+      <c r="G56" s="18"/>
     </row>
     <row r="57" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A57" s="9">
+      <c r="A57" s="11">
         <v>7</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="11">
         <v>1</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="G57" s="9"/>
+      <c r="G57" s="18"/>
     </row>
     <row r="58" ht="31.5" spans="1:7">
-      <c r="A58" s="9">
+      <c r="A58" s="11">
         <v>8</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="11">
         <v>2</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="G58" s="9"/>
+      <c r="G58" s="18"/>
     </row>
     <row r="59" ht="31.5" spans="1:7">
-      <c r="A59" s="9">
+      <c r="A59" s="11">
         <v>9</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="11">
         <v>3</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F59" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="G59" s="9"/>
+      <c r="G59" s="18"/>
     </row>
     <row r="60" ht="31.5" spans="1:7">
-      <c r="A60" s="9">
+      <c r="A60" s="11">
         <v>10</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="11">
         <v>3</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F60" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="G60" s="12" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="9">
+      <c r="A61" s="11">
         <v>11</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="11">
         <v>2</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F61" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="G61" s="12" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="62" ht="31.5" spans="1:7">
-      <c r="A62" s="9">
+      <c r="A62" s="11">
         <v>12</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="11">
         <v>2</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F62" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="G62" s="12" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="63" ht="31.5" spans="1:7">
-      <c r="A63" s="9">
+      <c r="A63" s="11">
         <v>13</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="11">
         <v>4</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="24">
         <v>43093</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="F63" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="G63" s="9" t="s">
+      <c r="G63" s="12" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="64" ht="31.5" spans="1:7">
-      <c r="A64" s="9">
+      <c r="A64" s="11">
         <v>14</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="11">
         <v>3</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="F64" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="G64" s="12" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="65" ht="47.25" spans="1:7">
-      <c r="A65" s="9">
+      <c r="A65" s="11">
         <v>15</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="11">
         <v>1</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="F65" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="G65" s="9" t="s">
+      <c r="G65" s="12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="66" ht="31.5" spans="1:7">
-      <c r="A66" s="9">
+      <c r="A66" s="11">
         <v>16</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="11">
         <v>1</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F66" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="G66" s="12" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="67" ht="31.5" spans="1:7">
-      <c r="A67" s="9">
+      <c r="A67" s="11">
         <v>17</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="11">
         <v>1</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E67" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F67" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="G67" s="12" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="68" ht="141.75" spans="1:7">
-      <c r="A68" s="9">
+    <row r="68" ht="126" spans="1:7">
+      <c r="A68" s="11">
         <v>18</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="11">
         <v>4</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F68" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="G68" s="9" t="s">
+      <c r="G68" s="12" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" ht="31.5" spans="1:7">
-      <c r="A69" s="9">
+      <c r="A69" s="11">
         <v>19</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="11">
         <v>3</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="G69" s="12" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="70" s="2" customFormat="1" spans="1:7">
-      <c r="A70" s="9">
+      <c r="A70" s="11">
         <v>20</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="11">
         <v>1</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="F70" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="G70" s="9" t="s">
+      <c r="G70" s="12" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="9">
+      <c r="A71" s="14">
         <v>21</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="14">
         <v>1</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="F71" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="G71" s="15" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="8"/>
     </row>
     <row r="73" ht="31.5" spans="1:7">
       <c r="A73" s="9" t="s">
@@ -5109,395 +5206,395 @@
         <v>104</v>
       </c>
     </row>
-    <row r="74" ht="31.5" spans="1:7">
-      <c r="A74" s="9">
+    <row r="74" spans="1:7">
+      <c r="A74" s="11">
         <v>1</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="11">
         <v>2</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="12">
         <v>134.05</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="12">
         <v>127.9</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F74" s="12">
         <v>118.2</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G74" s="12">
         <v>121.5</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="9">
+      <c r="A75" s="11">
         <v>2</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="11">
         <v>1</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="12">
         <v>124.35</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="12">
         <v>118.2</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F75" s="12">
         <v>120.1</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G75" s="12">
         <v>120.7</v>
       </c>
     </row>
     <row r="76" ht="31.5" spans="1:7">
-      <c r="A76" s="9">
+      <c r="A76" s="11">
         <v>3</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="11">
         <v>1</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E76" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="F76" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="G76" s="9"/>
+      <c r="G76" s="12"/>
     </row>
     <row r="77" ht="31.5" spans="1:7">
-      <c r="A77" s="9">
+      <c r="A77" s="11">
         <v>4</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="11">
         <v>1</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="F77" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="G77" s="9"/>
+      <c r="G77" s="12"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="9">
+      <c r="A78" s="11">
         <v>5</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="11">
         <v>4</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="F78" s="9" t="s">
+      <c r="F78" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="G78" s="9" t="s">
+      <c r="G78" s="12" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="79" ht="31.5" spans="1:7">
-      <c r="A79" s="9">
+      <c r="A79" s="11">
         <v>6</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="11">
         <v>1</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D79" s="18">
         <v>121.5</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="28">
         <v>124.35</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F79" s="28">
         <v>127.9</v>
       </c>
-      <c r="G79" s="9"/>
+      <c r="G79" s="12"/>
     </row>
     <row r="80" ht="31.5" spans="1:7">
-      <c r="A80" s="9">
+      <c r="A80" s="11">
         <v>7</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="11">
         <v>3</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D80" s="28">
         <v>118.2</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E80" s="28">
         <v>120.1</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F80" s="18">
         <v>121.5</v>
       </c>
-      <c r="G80" s="9"/>
+      <c r="G80" s="12"/>
     </row>
     <row r="81" ht="47.25" spans="1:7">
-      <c r="A81" s="9">
+      <c r="A81" s="11">
         <v>8</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="11">
         <v>4</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="F81" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="G81" s="9" t="s">
+      <c r="G81" s="12" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="82" ht="78.75" spans="1:7">
-      <c r="A82" s="9">
+      <c r="A82" s="11">
         <v>9</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82" s="11">
         <v>3</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="F82" s="9" t="s">
+      <c r="F82" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="G82" s="9" t="s">
+      <c r="G82" s="12" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="83" ht="31.5" spans="1:7">
-      <c r="A83" s="9">
+      <c r="A83" s="11">
         <v>10</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="11">
         <v>4</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="F83" s="9" t="s">
+      <c r="F83" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="G83" s="9" t="s">
+      <c r="G83" s="12" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="84" ht="31.5" spans="1:7">
-      <c r="A84" s="9">
+      <c r="A84" s="11">
         <v>11</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C84" s="11">
         <v>1</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D84" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="E84" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="F84" s="9" t="s">
+      <c r="F84" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="G84" s="9" t="s">
+      <c r="G84" s="12" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="85" ht="31.5" spans="1:7">
-      <c r="A85" s="9">
+      <c r="A85" s="11">
         <v>12</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85" s="11">
         <v>2</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D85" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="F85" s="9" t="s">
+      <c r="F85" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="G85" s="9" t="s">
+      <c r="G85" s="12" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="86" ht="110.25" spans="1:7">
-      <c r="A86" s="9">
+    <row r="86" ht="94.5" spans="1:7">
+      <c r="A86" s="11">
         <v>13</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="C86" s="9">
+      <c r="C86" s="11">
         <v>2</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="D86" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="F86" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="G86" s="9" t="s">
+      <c r="G86" s="12" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="87" ht="78.75" spans="1:7">
-      <c r="A87" s="9">
+    <row r="87" ht="63" spans="1:7">
+      <c r="A87" s="11">
         <v>14</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C87" s="11">
         <v>1</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="D87" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="E87" s="9" t="s">
+      <c r="E87" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="F87" s="9" t="s">
+      <c r="F87" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="G87" s="9" t="s">
+      <c r="G87" s="12" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="9">
+      <c r="A88" s="11">
         <v>15</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="C88" s="9">
+      <c r="C88" s="11">
         <v>1</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D88" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="E88" s="9" t="s">
+      <c r="E88" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="F88" s="9" t="s">
+      <c r="F88" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="G88" s="9"/>
+      <c r="G88" s="12"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="9">
+      <c r="A89" s="11">
         <v>16</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="C89" s="9">
+      <c r="C89" s="11">
         <v>1</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="D89" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E89" s="9" t="s">
+      <c r="E89" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="F89" s="9" t="s">
+      <c r="F89" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="G89" s="9"/>
-    </row>
-    <row r="90" ht="31.5" spans="1:7">
-      <c r="A90" s="9">
+      <c r="G89" s="12"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="14">
         <v>21</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C90" s="14">
         <v>2</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D90" s="15">
         <v>118.5</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E90" s="15">
         <v>124.35</v>
       </c>
-      <c r="F90" s="9">
+      <c r="F90" s="15">
         <v>115</v>
       </c>
-      <c r="G90" s="9"/>
+      <c r="G90" s="15"/>
     </row>
     <row r="91" s="1" customFormat="1" spans="1:7">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="8"/>
     </row>
     <row r="92" s="2" customFormat="1" ht="31.5" spans="1:7">
       <c r="A92" s="9" t="s">
@@ -5523,464 +5620,464 @@
       </c>
     </row>
     <row r="93" s="3" customFormat="1" spans="1:7">
-      <c r="A93" s="9">
+      <c r="A93" s="11">
         <v>1</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93" s="11">
         <v>1</v>
       </c>
-      <c r="D93" s="9" t="s">
+      <c r="D93" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="E93" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="F93" s="9" t="s">
+      <c r="F93" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="G93" s="9" t="s">
+      <c r="G93" s="12" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="9">
+      <c r="A94" s="11">
         <v>2</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94" s="11">
         <v>1</v>
       </c>
-      <c r="D94" s="9" t="s">
+      <c r="D94" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="E94" s="9" t="s">
+      <c r="E94" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="F94" s="9" t="s">
+      <c r="F94" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="G94" s="9" t="s">
+      <c r="G94" s="12" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="9">
+      <c r="A95" s="11">
         <v>3</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C95" s="11">
         <v>2</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D95" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="E95" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="F95" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="G95" s="9" t="s">
+      <c r="G95" s="12" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="96" s="3" customFormat="1" spans="1:7">
-      <c r="A96" s="9">
+      <c r="A96" s="11">
         <v>4</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C96" s="11">
         <v>3</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D96" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E96" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="F96" s="9" t="s">
+      <c r="F96" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="G96" s="9" t="s">
+      <c r="G96" s="12" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="97" ht="31.5" spans="1:7">
-      <c r="A97" s="9">
+      <c r="A97" s="11">
         <v>5</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="C97" s="9">
+      <c r="C97" s="11">
         <v>1</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="E97" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
     </row>
     <row r="98" ht="31.5" spans="1:7">
-      <c r="A98" s="9">
+      <c r="A98" s="11">
         <v>6</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="C98" s="9">
+      <c r="C98" s="11">
         <v>1</v>
       </c>
-      <c r="D98" s="9" t="s">
+      <c r="D98" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="E98" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
     </row>
     <row r="99" s="3" customFormat="1" ht="31.5" spans="1:7">
-      <c r="A99" s="9">
+      <c r="A99" s="11">
         <v>7</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="C99" s="9">
+      <c r="C99" s="11">
         <v>2</v>
       </c>
-      <c r="D99" s="9" t="s">
+      <c r="D99" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="E99" s="9" t="s">
+      <c r="E99" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
     </row>
     <row r="100" ht="31.5" spans="1:7">
-      <c r="A100" s="9">
+      <c r="A100" s="11">
         <v>8</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="C100" s="9">
+      <c r="C100" s="11">
         <v>3</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D100" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="E100" s="9" t="s">
+      <c r="E100" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="F100" s="9" t="s">
+      <c r="F100" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G100" s="9" t="s">
+      <c r="G100" s="12" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="101" ht="31.5" spans="1:7">
-      <c r="A101" s="9">
+      <c r="A101" s="11">
         <v>9</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="C101" s="9">
+      <c r="C101" s="11">
         <v>1</v>
       </c>
-      <c r="D101" s="9" t="s">
+      <c r="D101" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="E101" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="F101" s="9" t="s">
+      <c r="F101" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="G101" s="9" t="s">
+      <c r="G101" s="12" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="102" ht="31.5" spans="1:7">
-      <c r="A102" s="9">
+      <c r="A102" s="11">
         <v>10</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="C102" s="9">
+      <c r="C102" s="11">
         <v>2</v>
       </c>
-      <c r="D102" s="9" t="s">
+      <c r="D102" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="E102" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F102" s="9" t="s">
+      <c r="F102" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="G102" s="9" t="s">
+      <c r="G102" s="12" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="103" ht="31.5" spans="1:7">
-      <c r="A103" s="9">
+      <c r="A103" s="11">
         <v>11</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="C103" s="9">
+      <c r="C103" s="11">
         <v>4</v>
       </c>
-      <c r="D103" s="9" t="s">
+      <c r="D103" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="E103" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="F103" s="9" t="s">
+      <c r="F103" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="G103" s="9" t="s">
+      <c r="G103" s="12" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="9">
+      <c r="A104" s="11">
         <v>12</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="C104" s="9">
+      <c r="C104" s="11">
         <v>1</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="D104" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="E104" s="9" t="s">
+      <c r="E104" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F104" s="9" t="s">
+      <c r="F104" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G104" s="9"/>
-    </row>
-    <row r="105" s="3" customFormat="1" ht="31.5" spans="1:7">
-      <c r="A105" s="9">
+      <c r="G104" s="12"/>
+    </row>
+    <row r="105" s="3" customFormat="1" spans="1:7">
+      <c r="A105" s="11">
         <v>13</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="C105" s="9">
+      <c r="C105" s="11">
         <v>3</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D105" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="E105" s="9" t="s">
+      <c r="E105" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F105" s="9" t="s">
+      <c r="F105" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="106" ht="31.5" spans="1:7">
-      <c r="A106" s="9">
+      <c r="G105" s="12"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="11">
         <v>14</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="C106" s="9">
+      <c r="C106" s="11">
         <v>2</v>
       </c>
-      <c r="D106" s="9" t="s">
+      <c r="D106" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E106" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="F106" s="9" t="s">
+      <c r="F106" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" ht="31.5" spans="1:7">
-      <c r="A107" s="9">
+      <c r="G106" s="12"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="11">
         <v>15</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="C107" s="9">
+      <c r="C107" s="11">
         <v>3</v>
       </c>
-      <c r="D107" s="9" t="s">
+      <c r="D107" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="E107" s="9" t="s">
+      <c r="E107" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="F107" s="9" t="s">
+      <c r="F107" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" s="3" customFormat="1" ht="31.5" spans="1:7">
-      <c r="A108" s="9">
+      <c r="G107" s="12"/>
+    </row>
+    <row r="108" s="3" customFormat="1" spans="1:7">
+      <c r="A108" s="11">
         <v>16</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="C108" s="9">
+      <c r="C108" s="11">
         <v>1</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="D108" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="E108" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F108" s="9" t="s">
+      <c r="F108" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" ht="31.5" spans="1:7">
-      <c r="A109" s="9">
+      <c r="G108" s="12"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="11">
         <v>17</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="C109" s="9">
+      <c r="C109" s="11">
         <v>2</v>
       </c>
-      <c r="D109" s="9" t="s">
+      <c r="D109" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="E109" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F109" s="9" t="s">
+      <c r="F109" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="G109" s="9"/>
+      <c r="G109" s="12"/>
     </row>
     <row r="110" ht="31.5" spans="1:7">
-      <c r="A110" s="9">
+      <c r="A110" s="11">
         <v>18</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="C110" s="9">
+      <c r="C110" s="11">
         <v>1</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="D110" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="E110" s="9" t="s">
+      <c r="E110" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
     </row>
     <row r="111" ht="31.5" spans="1:7">
-      <c r="A111" s="9">
+      <c r="A111" s="11">
         <v>19</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="C111" s="9">
+      <c r="C111" s="11">
         <v>2</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="D111" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="E111" s="9" t="s">
+      <c r="E111" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
     </row>
     <row r="112" ht="31.5" spans="1:7">
-      <c r="A112" s="9">
+      <c r="A112" s="11">
         <v>20</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="C112" s="9">
+      <c r="C112" s="11">
         <v>2</v>
       </c>
-      <c r="D112" s="9" t="s">
+      <c r="D112" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="E112" s="9" t="s">
+      <c r="E112" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="9">
+      <c r="A113" s="14">
         <v>21</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="C113" s="9">
+      <c r="C113" s="14">
         <v>1</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D113" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="E113" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="F113" s="9" t="s">
+      <c r="F113" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="G113" s="9" t="s">
+      <c r="G113" s="15" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="114" s="1" customFormat="1" spans="1:7">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="8"/>
     </row>
     <row r="115" s="2" customFormat="1" ht="31.5" spans="1:7">
       <c r="A115" s="9" t="s">
@@ -6006,453 +6103,453 @@
       </c>
     </row>
     <row r="116" ht="63" spans="1:7">
-      <c r="A116" s="9">
+      <c r="A116" s="11">
         <v>1</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="C116" s="9">
+      <c r="C116" s="11">
         <v>2</v>
       </c>
-      <c r="D116" s="9" t="s">
+      <c r="D116" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="E116" s="9" t="s">
+      <c r="E116" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="F116" s="9" t="s">
+      <c r="F116" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="G116" s="9"/>
+      <c r="G116" s="12"/>
     </row>
     <row r="117" ht="31.5" spans="1:7">
-      <c r="A117" s="9">
+      <c r="A117" s="11">
         <v>2</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="C117" s="9">
+      <c r="C117" s="11">
         <v>3</v>
       </c>
-      <c r="D117" s="9" t="s">
+      <c r="D117" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="E117" s="9" t="s">
+      <c r="E117" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="F117" s="9" t="s">
+      <c r="F117" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" ht="78.75" spans="1:7">
-      <c r="A118" s="9">
+      <c r="G117" s="29"/>
+    </row>
+    <row r="118" ht="63" spans="1:7">
+      <c r="A118" s="11">
         <v>3</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="C118" s="9">
+      <c r="C118" s="11">
         <v>1</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="D118" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="E118" s="9" t="s">
+      <c r="E118" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="F118" s="9" t="s">
+      <c r="F118" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="G118" s="9"/>
+      <c r="G118" s="29"/>
     </row>
     <row r="119" ht="78.75" spans="1:7">
-      <c r="A119" s="9">
+      <c r="A119" s="11">
         <v>4</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="C119" s="9">
+      <c r="C119" s="11">
         <v>2</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="D119" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="E119" s="9" t="s">
+      <c r="E119" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="F119" s="9" t="s">
+      <c r="F119" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="G119" s="9"/>
-    </row>
-    <row r="120" ht="63" spans="1:7">
-      <c r="A120" s="9">
+      <c r="G119" s="29"/>
+    </row>
+    <row r="120" ht="47.25" spans="1:7">
+      <c r="A120" s="11">
         <v>5</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="C120" s="9">
+      <c r="C120" s="11">
         <v>4</v>
       </c>
-      <c r="D120" s="9" t="s">
+      <c r="D120" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="E120" s="9" t="s">
+      <c r="E120" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="F120" s="9" t="s">
+      <c r="F120" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="G120" s="9" t="s">
+      <c r="G120" s="12" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="121" ht="63" spans="1:7">
-      <c r="A121" s="9">
+    <row r="121" ht="47.25" spans="1:7">
+      <c r="A121" s="11">
         <v>6</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="C121" s="9">
+      <c r="C121" s="11">
         <v>3</v>
       </c>
-      <c r="D121" s="9" t="s">
+      <c r="D121" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="E121" s="9" t="s">
+      <c r="E121" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="F121" s="9" t="s">
+      <c r="F121" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="G121" s="9"/>
-    </row>
-    <row r="122" ht="63" spans="1:7">
-      <c r="A122" s="9">
+      <c r="G121" s="29"/>
+    </row>
+    <row r="122" ht="47.25" spans="1:7">
+      <c r="A122" s="11">
         <v>7</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="C122" s="9">
+      <c r="C122" s="11">
         <v>1</v>
       </c>
-      <c r="D122" s="9" t="s">
+      <c r="D122" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="E122" s="9" t="s">
+      <c r="E122" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="F122" s="9" t="s">
+      <c r="F122" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="G122" s="9"/>
+      <c r="G122" s="29"/>
     </row>
     <row r="123" ht="47.25" spans="1:7">
-      <c r="A123" s="9">
+      <c r="A123" s="11">
         <v>8</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="C123" s="9">
+      <c r="C123" s="11">
         <v>3</v>
       </c>
-      <c r="D123" s="9" t="s">
+      <c r="D123" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="E123" s="9" t="s">
+      <c r="E123" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="F123" s="9" t="s">
+      <c r="F123" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="G123" s="9"/>
+      <c r="G123" s="29"/>
     </row>
     <row r="124" ht="47.25" spans="1:7">
-      <c r="A124" s="9">
+      <c r="A124" s="11">
         <v>9</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="C124" s="9">
+      <c r="C124" s="11">
         <v>3</v>
       </c>
-      <c r="D124" s="9" t="s">
+      <c r="D124" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="E124" s="9" t="s">
+      <c r="E124" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="F124" s="9" t="s">
+      <c r="F124" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="G124" s="9"/>
-    </row>
-    <row r="125" ht="63" spans="1:7">
-      <c r="A125" s="9">
+      <c r="G124" s="29"/>
+    </row>
+    <row r="125" ht="47.25" spans="1:7">
+      <c r="A125" s="11">
         <v>10</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="C125" s="9">
+      <c r="C125" s="11">
         <v>3</v>
       </c>
-      <c r="D125" s="9" t="s">
+      <c r="D125" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="E125" s="9" t="s">
+      <c r="E125" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="F125" s="9" t="s">
+      <c r="F125" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="G125" s="9" t="s">
+      <c r="G125" s="12" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="126" ht="31.5" spans="1:7">
-      <c r="A126" s="9">
+      <c r="A126" s="11">
         <v>11</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="C126" s="9">
+      <c r="C126" s="11">
         <v>3</v>
       </c>
-      <c r="D126" s="9" t="s">
+      <c r="D126" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="E126" s="9" t="s">
+      <c r="E126" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="F126" s="9" t="s">
+      <c r="F126" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="G126" s="9"/>
+      <c r="G126" s="29"/>
     </row>
     <row r="127" ht="78.75" spans="1:7">
-      <c r="A127" s="9">
+      <c r="A127" s="11">
         <v>12</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="C127" s="9">
+      <c r="C127" s="11">
         <v>1</v>
       </c>
-      <c r="D127" s="9" t="s">
+      <c r="D127" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="E127" s="9" t="s">
+      <c r="E127" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="F127" s="9" t="s">
+      <c r="F127" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="G127" s="9"/>
+      <c r="G127" s="29"/>
     </row>
     <row r="128" ht="78.75" spans="1:7">
-      <c r="A128" s="9">
+      <c r="A128" s="11">
         <v>13</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="C128" s="9">
+      <c r="C128" s="11">
         <v>3</v>
       </c>
-      <c r="D128" s="9" t="s">
+      <c r="D128" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="E128" s="9" t="s">
+      <c r="E128" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="F128" s="9" t="s">
+      <c r="F128" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="G128" s="9"/>
+      <c r="G128" s="29"/>
     </row>
     <row r="129" ht="47.25" spans="1:7">
-      <c r="A129" s="9">
+      <c r="A129" s="11">
         <v>14</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="C129" s="9">
+      <c r="C129" s="11">
         <v>2</v>
       </c>
-      <c r="D129" s="9" t="s">
+      <c r="D129" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="E129" s="9" t="s">
+      <c r="E129" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="F129" s="9" t="s">
+      <c r="F129" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="G129" s="9" t="s">
+      <c r="G129" s="12" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="130" ht="63" spans="1:7">
-      <c r="A130" s="9">
+    <row r="130" ht="47.25" spans="1:7">
+      <c r="A130" s="11">
         <v>15</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="C130" s="9">
+      <c r="C130" s="11">
         <v>2</v>
       </c>
-      <c r="D130" s="9" t="s">
+      <c r="D130" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="E130" s="9" t="s">
+      <c r="E130" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="F130" s="9" t="s">
+      <c r="F130" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="G130" s="9" t="s">
+      <c r="G130" s="12" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="131" ht="47.25" spans="1:7">
-      <c r="A131" s="9">
+      <c r="A131" s="11">
         <v>16</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="C131" s="9">
+      <c r="C131" s="11">
         <v>2</v>
       </c>
-      <c r="D131" s="9" t="s">
+      <c r="D131" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="E131" s="9" t="s">
+      <c r="E131" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="F131" s="9" t="s">
+      <c r="F131" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="G131" s="9" t="s">
+      <c r="G131" s="12" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="132" ht="63" spans="1:7">
-      <c r="A132" s="9">
+    <row r="132" ht="47.25" spans="1:7">
+      <c r="A132" s="11">
         <v>17</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="C132" s="9">
+      <c r="C132" s="11">
         <v>2</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="D132" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="E132" s="9" t="s">
+      <c r="E132" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="F132" s="9" t="s">
+      <c r="F132" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="G132" s="9" t="s">
+      <c r="G132" s="12" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="133" ht="63" spans="1:7">
-      <c r="A133" s="9">
+    <row r="133" ht="47.25" spans="1:7">
+      <c r="A133" s="11">
         <v>18</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="C133" s="9">
+      <c r="C133" s="11">
         <v>2</v>
       </c>
-      <c r="D133" s="9" t="s">
+      <c r="D133" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="E133" s="9" t="s">
+      <c r="E133" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="F133" s="9" t="s">
+      <c r="F133" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="G133" s="9" t="s">
+      <c r="G133" s="12" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="134" ht="63" spans="1:7">
-      <c r="A134" s="9">
+    <row r="134" ht="47.25" spans="1:7">
+      <c r="A134" s="11">
         <v>19</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="C134" s="9">
+      <c r="C134" s="11">
         <v>3</v>
       </c>
-      <c r="D134" s="9" t="s">
+      <c r="D134" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="E134" s="9" t="s">
+      <c r="E134" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="F134" s="9" t="s">
+      <c r="F134" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="G134" s="9" t="s">
+      <c r="G134" s="12" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="135" ht="47.25" spans="1:7">
-      <c r="A135" s="9">
+      <c r="A135" s="14">
         <v>20</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="C135" s="9">
+      <c r="C135" s="30">
         <v>2</v>
       </c>
-      <c r="D135" s="9" t="s">
+      <c r="D135" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="E135" s="9" t="s">
+      <c r="E135" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="F135" s="9" t="s">
+      <c r="F135" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="G135" s="9"/>
+      <c r="G135" s="15"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="9" t="s">
+      <c r="A136" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="8"/>
     </row>
     <row r="137" s="1" customFormat="1" ht="31.5" spans="1:7">
       <c r="A137" s="9" t="s">
@@ -6478,492 +6575,492 @@
       </c>
     </row>
     <row r="138" s="2" customFormat="1" ht="31.5" spans="1:7">
-      <c r="A138" s="9">
+      <c r="A138" s="11">
         <v>1</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B138" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="C138" s="9">
+      <c r="C138" s="11">
         <v>3</v>
       </c>
-      <c r="D138" s="9" t="s">
+      <c r="D138" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="E138" s="9" t="s">
+      <c r="E138" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="F138" s="9" t="s">
+      <c r="F138" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="G138" s="9"/>
+      <c r="G138" s="29"/>
     </row>
     <row r="139" ht="31.5" spans="1:7">
-      <c r="A139" s="9">
+      <c r="A139" s="11">
         <v>2</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="C139" s="9">
+      <c r="C139" s="11">
         <v>1</v>
       </c>
-      <c r="D139" s="9" t="s">
+      <c r="D139" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="E139" s="9" t="s">
+      <c r="E139" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="F139" s="9" t="s">
+      <c r="F139" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="G139" s="9" t="s">
+      <c r="G139" s="12" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="140" ht="31.5" spans="1:7">
-      <c r="A140" s="9">
+      <c r="A140" s="11">
         <v>3</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="C140" s="9">
+      <c r="C140" s="11">
         <v>2</v>
       </c>
-      <c r="D140" s="9" t="s">
+      <c r="D140" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="E140" s="9" t="s">
+      <c r="E140" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="F140" s="9" t="s">
+      <c r="F140" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="G140" s="9" t="s">
+      <c r="G140" s="12" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="141" ht="31.5" spans="1:7">
-      <c r="A141" s="9">
+    <row r="141" spans="1:7">
+      <c r="A141" s="11">
         <v>4</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="C141" s="9">
+      <c r="C141" s="11">
         <v>4</v>
       </c>
-      <c r="D141" s="9" t="s">
+      <c r="D141" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="E141" s="9" t="s">
+      <c r="E141" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="F141" s="9" t="s">
+      <c r="F141" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="G141" s="9" t="s">
+      <c r="G141" s="12" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="142" ht="26.25" customHeight="1" spans="1:7">
-      <c r="A142" s="9">
+      <c r="A142" s="11">
         <v>5</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="C142" s="9">
+      <c r="C142" s="11">
         <v>3</v>
       </c>
-      <c r="D142" s="9" t="s">
+      <c r="D142" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="E142" s="9" t="s">
+      <c r="E142" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="F142" s="9" t="s">
+      <c r="F142" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="G142" s="9" t="s">
+      <c r="G142" s="12" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="143" ht="24" customHeight="1" spans="1:7">
-      <c r="A143" s="9">
+      <c r="A143" s="11">
         <v>6</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B143" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="C143" s="9">
+      <c r="C143" s="11">
         <v>4</v>
       </c>
-      <c r="D143" s="9" t="s">
+      <c r="D143" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="E143" s="9" t="s">
+      <c r="E143" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="F143" s="9" t="s">
+      <c r="F143" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="G143" s="9" t="s">
+      <c r="G143" s="12" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="144" ht="47.25" spans="1:7">
-      <c r="A144" s="9">
+    <row r="144" ht="31.5" spans="1:7">
+      <c r="A144" s="11">
         <v>7</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B144" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="C144" s="9">
+      <c r="C144" s="11">
         <v>2</v>
       </c>
-      <c r="D144" s="9" t="s">
+      <c r="D144" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="E144" s="9" t="s">
+      <c r="E144" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="F144" s="9" t="s">
+      <c r="F144" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="G144" s="9" t="s">
+      <c r="G144" s="12" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="145" ht="47.25" spans="1:7">
-      <c r="A145" s="9">
+      <c r="A145" s="11">
         <v>8</v>
       </c>
-      <c r="B145" s="9" t="s">
+      <c r="B145" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="C145" s="9">
+      <c r="C145" s="11">
         <v>2</v>
       </c>
-      <c r="D145" s="9" t="s">
+      <c r="D145" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="E145" s="9" t="s">
+      <c r="E145" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="F145" s="9" t="s">
+      <c r="F145" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="G145" s="9"/>
+      <c r="G145" s="29"/>
     </row>
     <row r="146" ht="31.5" spans="1:7">
-      <c r="A146" s="9">
+      <c r="A146" s="11">
         <v>9</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="C146" s="9">
+      <c r="C146" s="11">
         <v>3</v>
       </c>
-      <c r="D146" s="9" t="s">
+      <c r="D146" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="E146" s="9" t="s">
+      <c r="E146" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="F146" s="9" t="s">
+      <c r="F146" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G146" s="9"/>
-    </row>
-    <row r="147" ht="31.5" spans="1:7">
-      <c r="A147" s="9">
+      <c r="G146" s="29"/>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="11">
         <v>10</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B147" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="C147" s="9">
+      <c r="C147" s="11">
         <v>3</v>
       </c>
-      <c r="D147" s="9" t="s">
+      <c r="D147" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="E147" s="9" t="s">
+      <c r="E147" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="F147" s="9" t="s">
+      <c r="F147" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="G147" s="9"/>
+      <c r="G147" s="29"/>
     </row>
     <row r="148" ht="47.25" spans="1:7">
-      <c r="A148" s="9">
+      <c r="A148" s="11">
         <v>11</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="C148" s="9">
+      <c r="C148" s="11">
         <v>1</v>
       </c>
-      <c r="D148" s="9" t="s">
+      <c r="D148" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="E148" s="9" t="s">
+      <c r="E148" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="F148" s="9" t="s">
+      <c r="F148" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="G148" s="9" t="s">
+      <c r="G148" s="12" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="149" ht="63" spans="1:7">
-      <c r="A149" s="9">
+      <c r="A149" s="11">
         <v>12</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="C149" s="9">
+      <c r="C149" s="11">
         <v>1</v>
       </c>
-      <c r="D149" s="9" t="s">
+      <c r="D149" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="E149" s="9" t="s">
+      <c r="E149" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="F149" s="9" t="s">
+      <c r="F149" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="G149" s="9" t="s">
+      <c r="G149" s="29" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="150" ht="63" spans="1:7">
-      <c r="A150" s="9">
+      <c r="A150" s="11">
         <v>13</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="C150" s="9">
+      <c r="C150" s="11">
         <v>2</v>
       </c>
-      <c r="D150" s="9" t="s">
+      <c r="D150" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="E150" s="9" t="s">
+      <c r="E150" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="F150" s="9" t="s">
+      <c r="F150" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="G150" s="9" t="s">
+      <c r="G150" s="29" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="151" ht="63" spans="1:7">
-      <c r="A151" s="9">
+      <c r="A151" s="11">
         <v>14</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="C151" s="9">
+      <c r="C151" s="11">
         <v>1</v>
       </c>
-      <c r="D151" s="9" t="s">
+      <c r="D151" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="E151" s="9" t="s">
+      <c r="E151" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="F151" s="9" t="s">
+      <c r="F151" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="G151" s="9" t="s">
+      <c r="G151" s="12" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="9">
+      <c r="A152" s="11">
         <v>15</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="C152" s="9">
+      <c r="C152" s="11">
         <v>1</v>
       </c>
-      <c r="D152" s="9" t="s">
+      <c r="D152" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="E152" s="9" t="s">
+      <c r="E152" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="F152" s="9" t="s">
+      <c r="F152" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="G152" s="9" t="s">
+      <c r="G152" s="12" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="153" ht="63" spans="1:7">
-      <c r="A153" s="9">
+      <c r="A153" s="11">
         <v>16</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="B153" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="C153" s="9">
+      <c r="C153" s="11">
         <v>3</v>
       </c>
-      <c r="D153" s="9" t="s">
+      <c r="D153" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="E153" s="9" t="s">
+      <c r="E153" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="F153" s="9" t="s">
+      <c r="F153" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="G153" s="9" t="s">
+      <c r="G153" s="12" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="154" ht="63" spans="1:7">
-      <c r="A154" s="9">
+      <c r="A154" s="11">
         <v>17</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="C154" s="9">
+      <c r="C154" s="11">
         <v>1</v>
       </c>
-      <c r="D154" s="9" t="s">
+      <c r="D154" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="E154" s="9" t="s">
+      <c r="E154" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="F154" s="9" t="s">
+      <c r="F154" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="G154" s="9" t="s">
+      <c r="G154" s="12" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="155" ht="63" spans="1:7">
-      <c r="A155" s="9">
+      <c r="A155" s="11">
         <v>18</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B155" s="12" t="s">
         <v>515</v>
       </c>
-      <c r="C155" s="9">
+      <c r="C155" s="11">
         <v>4</v>
       </c>
-      <c r="D155" s="9" t="s">
+      <c r="D155" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="E155" s="9" t="s">
+      <c r="E155" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="F155" s="9" t="s">
+      <c r="F155" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="G155" s="9" t="s">
+      <c r="G155" s="12" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="156" ht="63" spans="1:7">
-      <c r="A156" s="9">
+      <c r="A156" s="11">
         <v>19</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="12" t="s">
         <v>520</v>
       </c>
-      <c r="C156" s="9">
+      <c r="C156" s="11">
         <v>4</v>
       </c>
-      <c r="D156" s="9" t="s">
+      <c r="D156" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="E156" s="9" t="s">
+      <c r="E156" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="F156" s="9" t="s">
+      <c r="F156" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="G156" s="9" t="s">
+      <c r="G156" s="12" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="157" ht="63" spans="1:7">
-      <c r="A157" s="9">
+      <c r="A157" s="11">
         <v>20</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="B157" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="C157" s="9">
+      <c r="C157" s="11">
         <v>1</v>
       </c>
-      <c r="D157" s="9" t="s">
+      <c r="D157" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="E157" s="9" t="s">
+      <c r="E157" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="F157" s="9" t="s">
+      <c r="F157" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="G157" s="9" t="s">
+      <c r="G157" s="12" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="158" ht="78.75" spans="1:7">
-      <c r="A158" s="9">
+    <row r="158" ht="63" spans="1:7">
+      <c r="A158" s="14">
         <v>21</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B158" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="C158" s="9">
+      <c r="C158" s="14">
         <v>1</v>
       </c>
-      <c r="D158" s="9" t="s">
+      <c r="D158" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="E158" s="9" t="s">
+      <c r="E158" s="15" t="s">
         <v>532</v>
       </c>
-      <c r="F158" s="9" t="s">
+      <c r="F158" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="G158" s="9" t="s">
+      <c r="G158" s="15" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="159" s="1" customFormat="1" spans="1:7">
-      <c r="A159" s="9" t="s">
+      <c r="A159" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="B159" s="9" t="s">
+      <c r="B159" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="C159" s="9"/>
-      <c r="D159" s="9"/>
-      <c r="E159" s="9"/>
-      <c r="F159" s="9"/>
-      <c r="G159" s="9"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="8"/>
     </row>
     <row r="160" s="2" customFormat="1" ht="31.5" spans="1:7">
       <c r="A160" s="9" t="s">
@@ -6989,494 +7086,494 @@
       </c>
     </row>
     <row r="161" ht="63" spans="1:7">
-      <c r="A161" s="9">
+      <c r="A161" s="11">
         <v>1</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B161" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="C161" s="9">
+      <c r="C161" s="11">
         <v>1</v>
       </c>
-      <c r="D161" s="9" t="s">
+      <c r="D161" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="E161" s="9" t="s">
+      <c r="E161" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="F161" s="9" t="s">
+      <c r="F161" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="G161" s="9" t="s">
+      <c r="G161" s="12" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="162" ht="94.5" spans="1:7">
-      <c r="A162" s="9">
+    <row r="162" ht="78.75" spans="1:7">
+      <c r="A162" s="11">
         <v>2</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="B162" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="C162" s="9">
+      <c r="C162" s="11">
         <v>3</v>
       </c>
-      <c r="D162" s="9" t="s">
+      <c r="D162" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="E162" s="9" t="s">
+      <c r="E162" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="F162" s="9" t="s">
+      <c r="F162" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="G162" s="9" t="s">
+      <c r="G162" s="12" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="163" ht="78.75" spans="1:7">
-      <c r="A163" s="9">
+    <row r="163" ht="63" spans="1:7">
+      <c r="A163" s="11">
         <v>3</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B163" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="C163" s="9">
+      <c r="C163" s="11">
         <v>1</v>
       </c>
-      <c r="D163" s="9" t="s">
+      <c r="D163" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="E163" s="9" t="s">
+      <c r="E163" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="F163" s="9" t="s">
+      <c r="F163" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="G163" s="9" t="s">
+      <c r="G163" s="12" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="164" ht="47.25" spans="1:7">
-      <c r="A164" s="9">
+      <c r="A164" s="11">
         <v>4</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B164" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="C164" s="9">
+      <c r="C164" s="11">
         <v>3</v>
       </c>
-      <c r="D164" s="9" t="s">
+      <c r="D164" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="E164" s="9" t="s">
+      <c r="E164" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="F164" s="9" t="s">
+      <c r="F164" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="G164" s="9" t="s">
+      <c r="G164" s="12" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="165" ht="31.5" spans="1:7">
-      <c r="A165" s="9">
+      <c r="A165" s="11">
         <v>5</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B165" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="C165" s="9">
+      <c r="C165" s="11">
         <v>2</v>
       </c>
-      <c r="D165" s="9" t="s">
+      <c r="D165" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="E165" s="9" t="s">
+      <c r="E165" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="F165" s="9" t="s">
+      <c r="F165" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="G165" s="9" t="s">
+      <c r="G165" s="12" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="166" ht="31.5" spans="1:7">
-      <c r="A166" s="9">
+      <c r="A166" s="11">
         <v>6</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B166" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="C166" s="9">
+      <c r="C166" s="11">
         <v>4</v>
       </c>
-      <c r="D166" s="9" t="s">
+      <c r="D166" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="E166" s="9" t="s">
+      <c r="E166" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="F166" s="9" t="s">
+      <c r="F166" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="G166" s="9" t="s">
+      <c r="G166" s="12" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="167" ht="47.25" spans="1:7">
-      <c r="A167" s="9">
+      <c r="A167" s="11">
         <v>7</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B167" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="C167" s="9">
+      <c r="C167" s="11">
         <v>3</v>
       </c>
-      <c r="D167" s="9" t="s">
+      <c r="D167" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="E167" s="9" t="s">
+      <c r="E167" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="F167" s="9" t="s">
+      <c r="F167" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="G167" s="9" t="s">
+      <c r="G167" s="12" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="168" ht="63" spans="1:7">
-      <c r="A168" s="9">
+      <c r="A168" s="11">
         <v>8</v>
       </c>
-      <c r="B168" s="9" t="s">
+      <c r="B168" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="C168" s="9">
+      <c r="C168" s="11">
         <v>2</v>
       </c>
-      <c r="D168" s="9" t="s">
+      <c r="D168" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="E168" s="9" t="s">
+      <c r="E168" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="F168" s="9" t="s">
+      <c r="F168" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="G168" s="9" t="s">
+      <c r="G168" s="12" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="169" ht="94.5" spans="1:7">
-      <c r="A169" s="9">
+      <c r="A169" s="11">
         <v>9</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="B169" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="C169" s="9">
+      <c r="C169" s="11">
         <v>2</v>
       </c>
-      <c r="D169" s="9" t="s">
+      <c r="D169" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="E169" s="9" t="s">
+      <c r="E169" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="F169" s="9" t="s">
+      <c r="F169" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="G169" s="9" t="s">
+      <c r="G169" s="12" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="170" ht="31.5" spans="1:7">
-      <c r="A170" s="9">
+      <c r="A170" s="11">
         <v>10</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="C170" s="9">
+      <c r="C170" s="11">
         <v>3</v>
       </c>
-      <c r="D170" s="9">
+      <c r="D170" s="12">
         <v>118.2</v>
       </c>
-      <c r="E170" s="9">
+      <c r="E170" s="12">
         <v>118.25</v>
       </c>
-      <c r="F170" s="9">
+      <c r="F170" s="12">
         <v>121.5</v>
       </c>
-      <c r="G170" s="9">
+      <c r="G170" s="12">
         <v>120.1</v>
       </c>
     </row>
-    <row r="171" ht="63" spans="1:7">
-      <c r="A171" s="9">
+    <row r="171" ht="47.25" spans="1:7">
+      <c r="A171" s="11">
         <v>11</v>
       </c>
-      <c r="B171" s="9" t="s">
+      <c r="B171" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="C171" s="9">
+      <c r="C171" s="11">
         <v>4</v>
       </c>
-      <c r="D171" s="9" t="s">
+      <c r="D171" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="E171" s="9" t="s">
+      <c r="E171" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="F171" s="9" t="s">
+      <c r="F171" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="G171" s="9" t="s">
+      <c r="G171" s="12" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="172" ht="110.25" spans="1:7">
-      <c r="A172" s="9">
+      <c r="A172" s="11">
         <v>12</v>
       </c>
-      <c r="B172" s="9" t="s">
+      <c r="B172" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="C172" s="9">
+      <c r="C172" s="11">
         <v>2</v>
       </c>
-      <c r="D172" s="9" t="s">
+      <c r="D172" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="E172" s="9" t="s">
+      <c r="E172" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="F172" s="9" t="s">
+      <c r="F172" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="G172" s="9" t="s">
+      <c r="G172" s="12" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="173" ht="94.5" spans="1:7">
-      <c r="A173" s="9">
+    <row r="173" ht="78.75" spans="1:7">
+      <c r="A173" s="11">
         <v>13</v>
       </c>
-      <c r="B173" s="9" t="s">
+      <c r="B173" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="C173" s="9">
+      <c r="C173" s="11">
         <v>3</v>
       </c>
-      <c r="D173" s="9" t="s">
+      <c r="D173" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="E173" s="9" t="s">
+      <c r="E173" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="F173" s="9" t="s">
+      <c r="F173" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="G173" s="9" t="s">
+      <c r="G173" s="12" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="174" ht="31.5" spans="1:7">
-      <c r="A174" s="9">
+      <c r="A174" s="11">
         <v>14</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B174" s="12" t="s">
         <v>594</v>
       </c>
-      <c r="C174" s="9">
+      <c r="C174" s="11">
         <v>4</v>
       </c>
-      <c r="D174" s="9" t="s">
+      <c r="D174" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="E174" s="9" t="s">
+      <c r="E174" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="F174" s="9" t="s">
+      <c r="F174" s="12" t="s">
         <v>597</v>
       </c>
-      <c r="G174" s="9" t="s">
+      <c r="G174" s="12" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="175" ht="78.75" spans="1:7">
-      <c r="A175" s="9">
+      <c r="A175" s="11">
         <v>15</v>
       </c>
-      <c r="B175" s="9" t="s">
+      <c r="B175" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="C175" s="9">
+      <c r="C175" s="11">
         <v>4</v>
       </c>
-      <c r="D175" s="9" t="s">
+      <c r="D175" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="E175" s="9" t="s">
+      <c r="E175" s="12" t="s">
         <v>601</v>
       </c>
-      <c r="F175" s="9" t="s">
+      <c r="F175" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="G175" s="9" t="s">
+      <c r="G175" s="12" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="176" ht="78.75" spans="1:7">
-      <c r="A176" s="9">
+      <c r="A176" s="11">
         <v>16</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="B176" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="C176" s="9">
+      <c r="C176" s="11">
         <v>4</v>
       </c>
-      <c r="D176" s="9" t="s">
+      <c r="D176" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="E176" s="9" t="s">
+      <c r="E176" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="F176" s="9" t="s">
+      <c r="F176" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="G176" s="9" t="s">
+      <c r="G176" s="12" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="177" ht="78.75" spans="1:7">
-      <c r="A177" s="9">
+    <row r="177" ht="63" spans="1:7">
+      <c r="A177" s="11">
         <v>17</v>
       </c>
-      <c r="B177" s="9" t="s">
+      <c r="B177" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="C177" s="9">
+      <c r="C177" s="11">
         <v>3</v>
       </c>
-      <c r="D177" s="9" t="s">
+      <c r="D177" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="E177" s="9" t="s">
+      <c r="E177" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="F177" s="9" t="s">
+      <c r="F177" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="G177" s="9"/>
+      <c r="G177" s="29"/>
     </row>
     <row r="178" ht="78.75" spans="1:7">
-      <c r="A178" s="9">
+      <c r="A178" s="11">
         <v>18</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B178" s="12" t="s">
         <v>612</v>
       </c>
-      <c r="C178" s="9">
+      <c r="C178" s="11">
         <v>1</v>
       </c>
-      <c r="D178" s="9" t="s">
+      <c r="D178" s="12" t="s">
         <v>613</v>
       </c>
-      <c r="E178" s="9" t="s">
+      <c r="E178" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="F178" s="9" t="s">
+      <c r="F178" s="12" t="s">
         <v>615</v>
       </c>
-      <c r="G178" s="9"/>
-    </row>
-    <row r="179" ht="110.25" spans="1:7">
-      <c r="A179" s="9">
+      <c r="G178" s="12"/>
+    </row>
+    <row r="179" ht="94.5" spans="1:7">
+      <c r="A179" s="11">
         <v>19</v>
       </c>
-      <c r="B179" s="9" t="s">
+      <c r="B179" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="C179" s="9">
+      <c r="C179" s="11">
         <v>3</v>
       </c>
-      <c r="D179" s="9" t="s">
+      <c r="D179" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="E179" s="9" t="s">
+      <c r="E179" s="12" t="s">
         <v>618</v>
       </c>
-      <c r="F179" s="9" t="s">
+      <c r="F179" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="G179" s="9"/>
-    </row>
-    <row r="180" ht="63" spans="1:7">
-      <c r="A180" s="9">
+      <c r="G179" s="12"/>
+    </row>
+    <row r="180" ht="47.25" spans="1:7">
+      <c r="A180" s="11">
         <v>20</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="B180" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="C180" s="9">
+      <c r="C180" s="11">
         <v>3</v>
       </c>
-      <c r="D180" s="9" t="s">
+      <c r="D180" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="E180" s="9" t="s">
+      <c r="E180" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="F180" s="9" t="s">
+      <c r="F180" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="G180" s="9" t="s">
+      <c r="G180" s="12" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="181" ht="31.5" spans="1:7">
-      <c r="A181" s="9">
+    <row r="181" spans="1:7">
+      <c r="A181" s="14">
         <v>21</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B181" s="23" t="s">
         <v>625</v>
       </c>
-      <c r="C181" s="9">
+      <c r="C181" s="14">
         <v>3</v>
       </c>
-      <c r="D181" s="9">
+      <c r="D181" s="15">
         <v>127.9</v>
       </c>
-      <c r="E181" s="9">
+      <c r="E181" s="15">
         <v>124.35</v>
       </c>
-      <c r="F181" s="9">
+      <c r="F181" s="15">
         <v>121.5</v>
       </c>
-      <c r="G181" s="9">
+      <c r="G181" s="15">
         <v>134.05</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="1" spans="1:7">
-      <c r="A182" s="9" t="s">
+      <c r="A182" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="B182" s="9" t="s">
+      <c r="B182" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="C182" s="9"/>
-      <c r="D182" s="9"/>
-      <c r="E182" s="9"/>
-      <c r="F182" s="9"/>
-      <c r="G182" s="9"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
+      <c r="E182" s="7"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="8"/>
     </row>
     <row r="183" s="2" customFormat="1" ht="31.5" spans="1:7">
       <c r="A183" s="9" t="s">
@@ -7501,568 +7598,576 @@
         <v>104</v>
       </c>
     </row>
-    <row r="184" ht="31.5" spans="1:7">
-      <c r="A184" s="9">
+    <row r="184" spans="1:7">
+      <c r="A184" s="11">
         <v>1</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B184" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="C184" s="9">
+      <c r="C184" s="11">
         <v>1</v>
       </c>
-      <c r="D184" s="9" t="s">
+      <c r="D184" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="E184" s="9" t="s">
+      <c r="E184" s="12" t="s">
         <v>630</v>
       </c>
-      <c r="F184" s="9" t="s">
+      <c r="F184" s="12" t="s">
         <v>631</v>
       </c>
-      <c r="G184" s="9" t="s">
+      <c r="G184" s="12" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="185" ht="31.5" spans="1:7">
-      <c r="A185" s="9">
+    <row r="185" spans="1:7">
+      <c r="A185" s="11">
         <v>2</v>
       </c>
-      <c r="B185" s="9" t="s">
+      <c r="B185" s="12" t="s">
         <v>633</v>
       </c>
-      <c r="C185" s="9">
+      <c r="C185" s="11">
         <v>1</v>
       </c>
-      <c r="D185" s="9" t="s">
+      <c r="D185" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="E185" s="9" t="s">
+      <c r="E185" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="F185" s="9" t="s">
+      <c r="F185" s="12" t="s">
         <v>636</v>
       </c>
-      <c r="G185" s="9" t="s">
+      <c r="G185" s="12" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="186" ht="31.5" spans="1:7">
-      <c r="A186" s="9">
+    <row r="186" spans="1:7">
+      <c r="A186" s="11">
         <v>3</v>
       </c>
-      <c r="B186" s="9" t="s">
+      <c r="B186" s="12" t="s">
         <v>638</v>
       </c>
-      <c r="C186" s="9">
+      <c r="C186" s="11">
         <v>1</v>
       </c>
-      <c r="D186" s="9" t="s">
+      <c r="D186" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="E186" s="9" t="s">
+      <c r="E186" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="F186" s="9" t="s">
+      <c r="F186" s="12" t="s">
         <v>641</v>
       </c>
-      <c r="G186" s="9" t="s">
+      <c r="G186" s="12" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="187" ht="31.5" spans="1:7">
-      <c r="A187" s="9">
+    <row r="187" spans="1:7">
+      <c r="A187" s="11">
         <v>4</v>
       </c>
-      <c r="B187" s="9" t="s">
+      <c r="B187" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="C187" s="9">
+      <c r="C187" s="11">
         <v>1</v>
       </c>
-      <c r="D187" s="9" t="s">
+      <c r="D187" s="12" t="s">
         <v>644</v>
       </c>
-      <c r="E187" s="9" t="s">
+      <c r="E187" s="12" t="s">
         <v>645</v>
       </c>
-      <c r="F187" s="9" t="s">
+      <c r="F187" s="12" t="s">
         <v>646</v>
       </c>
-      <c r="G187" s="9" t="s">
+      <c r="G187" s="12" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="9">
+      <c r="A188" s="11">
         <v>5</v>
       </c>
-      <c r="B188" s="9" t="s">
+      <c r="B188" s="12" t="s">
         <v>648</v>
       </c>
-      <c r="C188" s="9">
+      <c r="C188" s="11">
         <v>4</v>
       </c>
-      <c r="D188" s="9" t="s">
+      <c r="D188" s="12" t="s">
         <v>649</v>
       </c>
-      <c r="E188" s="9" t="s">
+      <c r="E188" s="12" t="s">
         <v>650</v>
       </c>
-      <c r="F188" s="9" t="s">
+      <c r="F188" s="12" t="s">
         <v>651</v>
       </c>
-      <c r="G188" s="9" t="s">
+      <c r="G188" s="12" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="9">
+      <c r="A189" s="11">
         <v>6</v>
       </c>
-      <c r="B189" s="9" t="s">
+      <c r="B189" s="12" t="s">
         <v>653</v>
       </c>
-      <c r="C189" s="9">
+      <c r="C189" s="11">
         <v>2</v>
       </c>
-      <c r="D189" s="9" t="s">
+      <c r="D189" s="12" t="s">
         <v>654</v>
       </c>
-      <c r="E189" s="9" t="s">
+      <c r="E189" s="12" t="s">
         <v>655</v>
       </c>
-      <c r="F189" s="9" t="s">
+      <c r="F189" s="12" t="s">
         <v>656</v>
       </c>
-      <c r="G189" s="9" t="s">
+      <c r="G189" s="12" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="190" spans="1:7">
-      <c r="A190" s="9">
+      <c r="A190" s="11">
         <v>7</v>
       </c>
-      <c r="B190" s="9" t="s">
+      <c r="B190" s="12" t="s">
         <v>658</v>
       </c>
-      <c r="C190" s="9">
+      <c r="C190" s="11">
         <v>2</v>
       </c>
-      <c r="D190" s="9" t="s">
+      <c r="D190" s="12" t="s">
         <v>659</v>
       </c>
-      <c r="E190" s="9" t="s">
+      <c r="E190" s="12" t="s">
         <v>660</v>
       </c>
-      <c r="F190" s="9" t="s">
+      <c r="F190" s="12" t="s">
         <v>661</v>
       </c>
-      <c r="G190" s="9" t="s">
+      <c r="G190" s="12" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="9">
+      <c r="A191" s="11">
         <v>8</v>
       </c>
-      <c r="B191" s="9" t="s">
+      <c r="B191" s="12" t="s">
         <v>663</v>
       </c>
-      <c r="C191" s="9">
+      <c r="C191" s="11">
         <v>3</v>
       </c>
-      <c r="D191" s="9" t="s">
+      <c r="D191" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="E191" s="9" t="s">
+      <c r="E191" s="12" t="s">
         <v>664</v>
       </c>
-      <c r="F191" s="9" t="s">
+      <c r="F191" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G191" s="9" t="s">
+      <c r="G191" s="12" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="9">
+      <c r="A192" s="11">
         <v>9</v>
       </c>
-      <c r="B192" s="9" t="s">
+      <c r="B192" s="12" t="s">
         <v>666</v>
       </c>
-      <c r="C192" s="9">
+      <c r="C192" s="11">
         <v>2</v>
       </c>
-      <c r="D192" s="9">
+      <c r="D192" s="12">
         <v>2</v>
       </c>
-      <c r="E192" s="9">
+      <c r="E192" s="12">
         <v>3</v>
       </c>
-      <c r="F192" s="9">
+      <c r="F192" s="12">
         <v>4</v>
       </c>
-      <c r="G192" s="9">
+      <c r="G192" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="9">
+      <c r="A193" s="11">
         <v>10</v>
       </c>
-      <c r="B193" s="9" t="s">
+      <c r="B193" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="C193" s="9">
+      <c r="C193" s="11">
         <v>4</v>
       </c>
-      <c r="D193" s="9" t="s">
+      <c r="D193" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="E193" s="9" t="s">
+      <c r="E193" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="F193" s="9" t="s">
+      <c r="F193" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="G193" s="9" t="s">
+      <c r="G193" s="12" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="194" ht="31.5" spans="1:7">
-      <c r="A194" s="9">
+      <c r="A194" s="11">
         <v>11</v>
       </c>
-      <c r="B194" s="9" t="s">
+      <c r="B194" s="12" t="s">
         <v>668</v>
       </c>
-      <c r="C194" s="9">
+      <c r="C194" s="11">
         <v>1</v>
       </c>
-      <c r="D194" s="9" t="s">
+      <c r="D194" s="12" t="s">
         <v>669</v>
       </c>
-      <c r="E194" s="9" t="s">
+      <c r="E194" s="12" t="s">
         <v>670</v>
       </c>
-      <c r="F194" s="9" t="s">
+      <c r="F194" s="12" t="s">
         <v>671</v>
       </c>
-      <c r="G194" s="9"/>
-    </row>
-    <row r="195" ht="47.25" spans="1:7">
-      <c r="A195" s="9">
+      <c r="G194" s="29"/>
+    </row>
+    <row r="195" ht="31.5" spans="1:7">
+      <c r="A195" s="11">
         <v>12</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="B195" s="12" t="s">
         <v>672</v>
       </c>
-      <c r="C195" s="9">
+      <c r="C195" s="11">
         <v>3</v>
       </c>
-      <c r="D195" s="9" t="s">
+      <c r="D195" s="12" t="s">
         <v>673</v>
       </c>
-      <c r="E195" s="9" t="s">
+      <c r="E195" s="12" t="s">
         <v>674</v>
       </c>
-      <c r="F195" s="9" t="s">
+      <c r="F195" s="12" t="s">
         <v>675</v>
       </c>
-      <c r="G195" s="9"/>
+      <c r="G195" s="29"/>
     </row>
     <row r="196" ht="31.5" spans="1:7">
-      <c r="A196" s="9">
+      <c r="A196" s="11">
         <v>13</v>
       </c>
-      <c r="B196" s="9" t="s">
+      <c r="B196" s="12" t="s">
         <v>676</v>
       </c>
-      <c r="C196" s="9">
+      <c r="C196" s="11">
         <v>2</v>
       </c>
-      <c r="D196" s="9" t="s">
+      <c r="D196" s="12" t="s">
         <v>677</v>
       </c>
-      <c r="E196" s="9" t="s">
+      <c r="E196" s="12" t="s">
         <v>671</v>
       </c>
-      <c r="F196" s="9" t="s">
+      <c r="F196" s="12" t="s">
         <v>678</v>
       </c>
-      <c r="G196" s="9"/>
-    </row>
-    <row r="197" ht="47.25" spans="1:7">
-      <c r="A197" s="9">
+      <c r="G196" s="29"/>
+    </row>
+    <row r="197" ht="31.5" spans="1:7">
+      <c r="A197" s="11">
         <v>14</v>
       </c>
-      <c r="B197" s="9" t="s">
+      <c r="B197" s="12" t="s">
         <v>679</v>
       </c>
-      <c r="C197" s="9">
+      <c r="C197" s="11">
         <v>2</v>
       </c>
-      <c r="D197" s="9" t="s">
+      <c r="D197" s="12" t="s">
         <v>680</v>
       </c>
-      <c r="E197" s="9" t="s">
+      <c r="E197" s="12" t="s">
         <v>681</v>
       </c>
-      <c r="F197" s="9" t="s">
+      <c r="F197" s="12" t="s">
         <v>675</v>
       </c>
-      <c r="G197" s="9"/>
+      <c r="G197" s="29"/>
     </row>
     <row r="198" ht="31.5" spans="1:7">
-      <c r="A198" s="9">
+      <c r="A198" s="11">
         <v>15</v>
       </c>
-      <c r="B198" s="9" t="s">
+      <c r="B198" s="12" t="s">
         <v>682</v>
       </c>
-      <c r="C198" s="9">
+      <c r="C198" s="11">
         <v>3</v>
       </c>
-      <c r="D198" s="9" t="s">
+      <c r="D198" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="E198" s="9" t="s">
+      <c r="E198" s="12" t="s">
         <v>671</v>
       </c>
-      <c r="F198" s="9" t="s">
+      <c r="F198" s="12" t="s">
         <v>684</v>
       </c>
-      <c r="G198" s="9"/>
+      <c r="G198" s="29"/>
     </row>
     <row r="199" ht="31.5" spans="1:7">
-      <c r="A199" s="9">
+      <c r="A199" s="11">
         <v>16</v>
       </c>
-      <c r="B199" s="9" t="s">
+      <c r="B199" s="12" t="s">
         <v>685</v>
       </c>
-      <c r="C199" s="9">
+      <c r="C199" s="11">
         <v>2</v>
       </c>
-      <c r="D199" s="9" t="s">
+      <c r="D199" s="12" t="s">
         <v>686</v>
       </c>
-      <c r="E199" s="9" t="s">
+      <c r="E199" s="12" t="s">
         <v>687</v>
       </c>
-      <c r="F199" s="9" t="s">
+      <c r="F199" s="12" t="s">
         <v>688</v>
       </c>
-      <c r="G199" s="9"/>
+      <c r="G199" s="29"/>
     </row>
     <row r="200" ht="31.5" spans="1:7">
-      <c r="A200" s="9">
+      <c r="A200" s="11">
         <v>17</v>
       </c>
-      <c r="B200" s="9" t="s">
+      <c r="B200" s="12" t="s">
         <v>689</v>
       </c>
-      <c r="C200" s="9">
+      <c r="C200" s="11">
         <v>3</v>
       </c>
-      <c r="D200" s="9" t="s">
+      <c r="D200" s="12" t="s">
         <v>690</v>
       </c>
-      <c r="E200" s="9" t="s">
+      <c r="E200" s="12" t="s">
         <v>691</v>
       </c>
-      <c r="F200" s="9" t="s">
+      <c r="F200" s="12" t="s">
         <v>692</v>
       </c>
-      <c r="G200" s="9"/>
+      <c r="G200" s="29"/>
     </row>
     <row r="201" ht="31.5" spans="1:7">
-      <c r="A201" s="9">
+      <c r="A201" s="11">
         <v>18</v>
       </c>
-      <c r="B201" s="9" t="s">
+      <c r="B201" s="12" t="s">
         <v>693</v>
       </c>
-      <c r="C201" s="9">
+      <c r="C201" s="11">
         <v>3</v>
       </c>
-      <c r="D201" s="9" t="s">
+      <c r="D201" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="E201" s="9" t="s">
+      <c r="E201" s="12" t="s">
         <v>695</v>
       </c>
-      <c r="F201" s="9" t="s">
+      <c r="F201" s="12" t="s">
         <v>696</v>
       </c>
-      <c r="G201" s="9"/>
+      <c r="G201" s="29"/>
     </row>
     <row r="202" ht="31.5" spans="1:7">
-      <c r="A202" s="9">
+      <c r="A202" s="11">
         <v>19</v>
       </c>
-      <c r="B202" s="9" t="s">
+      <c r="B202" s="12" t="s">
         <v>697</v>
       </c>
-      <c r="C202" s="9">
+      <c r="C202" s="11">
         <v>4</v>
       </c>
-      <c r="D202" s="9" t="s">
+      <c r="D202" s="29" t="s">
         <v>698</v>
       </c>
-      <c r="E202" s="9" t="s">
+      <c r="E202" s="29" t="s">
         <v>699</v>
       </c>
-      <c r="F202" s="9" t="s">
+      <c r="F202" s="29" t="s">
         <v>700</v>
       </c>
-      <c r="G202" s="9" t="s">
+      <c r="G202" s="29" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="9">
+      <c r="A203" s="11">
         <v>20</v>
       </c>
-      <c r="B203" s="9" t="s">
+      <c r="B203" s="12" t="s">
         <v>702</v>
       </c>
-      <c r="C203" s="9">
+      <c r="C203" s="11">
         <v>1</v>
       </c>
-      <c r="D203" s="9" t="s">
+      <c r="D203" s="12" t="s">
         <v>703</v>
       </c>
-      <c r="E203" s="9" t="s">
+      <c r="E203" s="12" t="s">
         <v>704</v>
       </c>
-      <c r="F203" s="9" t="s">
+      <c r="F203" s="12" t="s">
         <v>705</v>
       </c>
-      <c r="G203" s="9" t="s">
+      <c r="G203" s="12" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="9">
+      <c r="A204" s="11">
         <v>21</v>
       </c>
-      <c r="B204" s="9" t="s">
+      <c r="B204" s="12" t="s">
         <v>707</v>
       </c>
-      <c r="C204" s="9">
+      <c r="C204" s="11">
         <v>1</v>
       </c>
-      <c r="D204" s="9" t="s">
+      <c r="D204" s="12" t="s">
         <v>708</v>
       </c>
-      <c r="E204" s="9" t="s">
+      <c r="E204" s="12" t="s">
         <v>706</v>
       </c>
-      <c r="F204" s="9" t="s">
+      <c r="F204" s="12" t="s">
         <v>705</v>
       </c>
-      <c r="G204" s="9" t="s">
+      <c r="G204" s="12" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="9">
+      <c r="A205" s="14">
         <v>22</v>
       </c>
-      <c r="B205" s="9" t="s">
+      <c r="B205" s="31" t="s">
         <v>709</v>
       </c>
-      <c r="C205" s="9">
+      <c r="C205" s="32">
         <v>2</v>
       </c>
-      <c r="D205" s="9" t="s">
+      <c r="D205" s="31" t="s">
         <v>710</v>
       </c>
-      <c r="E205" s="9" t="s">
+      <c r="E205" s="31" t="s">
         <v>711</v>
       </c>
-      <c r="F205" s="9" t="s">
+      <c r="F205" s="31" t="s">
         <v>712</v>
       </c>
-      <c r="G205" s="9" t="s">
+      <c r="G205" s="31" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="9">
+      <c r="A206" s="14">
         <v>23</v>
       </c>
-      <c r="B206" s="9" t="s">
+      <c r="B206" s="31" t="s">
         <v>714</v>
       </c>
-      <c r="C206" s="9">
+      <c r="C206" s="32">
         <v>2</v>
       </c>
-      <c r="D206" s="9" t="s">
+      <c r="D206" s="31" t="s">
         <v>712</v>
       </c>
-      <c r="E206" s="9" t="s">
+      <c r="E206" s="31" t="s">
         <v>711</v>
       </c>
-      <c r="F206" s="9" t="s">
+      <c r="F206" s="31" t="s">
         <v>710</v>
       </c>
-      <c r="G206" s="9" t="s">
+      <c r="G206" s="31" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="9">
+      <c r="A207" s="14">
         <v>24</v>
       </c>
-      <c r="B207" s="9" t="s">
+      <c r="B207" s="31" t="s">
         <v>715</v>
       </c>
-      <c r="C207" s="9">
+      <c r="C207" s="32">
         <v>1</v>
       </c>
-      <c r="D207" s="9" t="s">
+      <c r="D207" s="31" t="s">
         <v>716</v>
       </c>
-      <c r="E207" s="9" t="s">
+      <c r="E207" s="31" t="s">
         <v>710</v>
       </c>
-      <c r="F207" s="9" t="s">
+      <c r="F207" s="31" t="s">
         <v>712</v>
       </c>
-      <c r="G207" s="9" t="s">
+      <c r="G207" s="31" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="9">
+      <c r="A208" s="14">
         <v>25</v>
       </c>
-      <c r="B208" s="9" t="s">
+      <c r="B208" s="31" t="s">
         <v>718</v>
       </c>
-      <c r="C208" s="9">
+      <c r="C208" s="32">
         <v>1</v>
       </c>
-      <c r="D208" s="9" t="s">
+      <c r="D208" s="31" t="s">
         <v>712</v>
       </c>
-      <c r="E208" s="9" t="s">
+      <c r="E208" s="31" t="s">
         <v>716</v>
       </c>
-      <c r="F208" s="9" t="s">
+      <c r="F208" s="31" t="s">
         <v>719</v>
       </c>
-      <c r="G208" s="9" t="s">
+      <c r="G208" s="31" t="s">
         <v>720</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="9">
     <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="B182:G182"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F41" r:id="rId2" display="Airport Authority"/>
